--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H2">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N2">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O2">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P2">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q2">
-        <v>34.37584456447167</v>
+        <v>59.39993835537067</v>
       </c>
       <c r="R2">
-        <v>309.382601080245</v>
+        <v>534.5994451983361</v>
       </c>
       <c r="S2">
-        <v>0.1015423234411315</v>
+        <v>0.1839030873471926</v>
       </c>
       <c r="T2">
-        <v>0.1015423234411315</v>
+        <v>0.1839030873471926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H3">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.295537</v>
       </c>
       <c r="O3">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P3">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q3">
-        <v>1.084916441880333</v>
+        <v>2.371720261717333</v>
       </c>
       <c r="R3">
-        <v>9.764247976923</v>
+        <v>21.345482355456</v>
       </c>
       <c r="S3">
-        <v>0.003204719408170488</v>
+        <v>0.007342880994998087</v>
       </c>
       <c r="T3">
-        <v>0.003204719408170489</v>
+        <v>0.007342880994998088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H4">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N4">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O4">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P4">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q4">
-        <v>13.49341976370911</v>
+        <v>24.42732275598222</v>
       </c>
       <c r="R4">
-        <v>121.440777873382</v>
+        <v>219.84590480384</v>
       </c>
       <c r="S4">
-        <v>0.03985802272883197</v>
+        <v>0.07562735239851127</v>
       </c>
       <c r="T4">
-        <v>0.03985802272883198</v>
+        <v>0.07562735239851127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H5">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I5">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J5">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N5">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O5">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P5">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q5">
-        <v>0.9005228469905557</v>
+        <v>0.570316431104</v>
       </c>
       <c r="R5">
-        <v>8.104705622915001</v>
+        <v>5.132847879936</v>
       </c>
       <c r="S5">
-        <v>0.002660041763446604</v>
+        <v>0.001765708102546794</v>
       </c>
       <c r="T5">
-        <v>0.002660041763446604</v>
+        <v>0.001765708102546794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H6">
         <v>18.569678</v>
       </c>
       <c r="I6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N6">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O6">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P6">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q6">
-        <v>150.0732358656767</v>
+        <v>118.6229421267907</v>
       </c>
       <c r="R6">
-        <v>1350.65912279109</v>
+        <v>1067.606479141116</v>
       </c>
       <c r="S6">
-        <v>0.4432992192395309</v>
+        <v>0.3672583826065828</v>
       </c>
       <c r="T6">
-        <v>0.4432992192395309</v>
+        <v>0.3672583826065829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H7">
         <v>18.569678</v>
       </c>
       <c r="I7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>2.295537</v>
       </c>
       <c r="O7">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P7">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q7">
-        <v>4.736375880787334</v>
+        <v>4.736375880787333</v>
       </c>
       <c r="R7">
         <v>42.627382927086</v>
       </c>
       <c r="S7">
-        <v>0.01399071405281918</v>
+        <v>0.01466388975191275</v>
       </c>
       <c r="T7">
-        <v>0.01399071405281918</v>
+        <v>0.01466388975191276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H8">
         <v>18.569678</v>
       </c>
       <c r="I8">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J8">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N8">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O8">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P8">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q8">
-        <v>58.90767754188046</v>
+        <v>48.78188385078222</v>
       </c>
       <c r="R8">
-        <v>530.1690978769241</v>
+        <v>439.03695465704</v>
       </c>
       <c r="S8">
-        <v>0.1740065596033578</v>
+        <v>0.1510294336182569</v>
       </c>
       <c r="T8">
-        <v>0.1740065596033579</v>
+        <v>0.1510294336182569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H9">
         <v>18.569678</v>
       </c>
       <c r="I9">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J9">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N9">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O9">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P9">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q9">
-        <v>3.931376212892224</v>
+        <v>1.138934060774</v>
       </c>
       <c r="R9">
-        <v>35.38238591603001</v>
+        <v>10.250406546966</v>
       </c>
       <c r="S9">
-        <v>0.01161283686367542</v>
+        <v>0.003526156690737977</v>
       </c>
       <c r="T9">
-        <v>0.01161283686367542</v>
+        <v>0.003526156690737977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H10">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N10">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O10">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P10">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q10">
-        <v>24.44062203823334</v>
+        <v>36.192774672816</v>
       </c>
       <c r="R10">
-        <v>219.9655983441</v>
+        <v>325.734972055344</v>
       </c>
       <c r="S10">
-        <v>0.07219480945273116</v>
+        <v>0.1120533654794667</v>
       </c>
       <c r="T10">
-        <v>0.07219480945273117</v>
+        <v>0.1120533654794667</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H11">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I11">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J11">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.295537</v>
       </c>
       <c r="O11">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P11">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q11">
-        <v>0.7713565451266666</v>
+        <v>1.445104816536</v>
       </c>
       <c r="R11">
-        <v>6.94220890614</v>
+        <v>13.005943348824</v>
       </c>
       <c r="S11">
-        <v>0.00227849924230333</v>
+        <v>0.004474065877161639</v>
       </c>
       <c r="T11">
-        <v>0.00227849924230333</v>
+        <v>0.004474065877161639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H12">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I12">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J12">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N12">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O12">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P12">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q12">
-        <v>9.593584583195556</v>
+        <v>14.88372905504</v>
       </c>
       <c r="R12">
-        <v>86.34226124876</v>
+        <v>133.95356149536</v>
       </c>
       <c r="S12">
-        <v>0.0283383544767802</v>
+        <v>0.04608024520304048</v>
       </c>
       <c r="T12">
-        <v>0.0283383544767802</v>
+        <v>0.04608024520304049</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H13">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I13">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J13">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N13">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O13">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P13">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q13">
-        <v>0.6402559360777779</v>
+        <v>0.347497567416</v>
       </c>
       <c r="R13">
-        <v>5.762303424700001</v>
+        <v>3.127478106744</v>
       </c>
       <c r="S13">
-        <v>0.001891242998390412</v>
+        <v>0.001075857606301093</v>
       </c>
       <c r="T13">
-        <v>0.001891242998390412</v>
+        <v>0.001075857606301093</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H14">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I14">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J14">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N14">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O14">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P14">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q14">
-        <v>24.53860370014667</v>
+        <v>6.898672912485333</v>
       </c>
       <c r="R14">
-        <v>220.84743330132</v>
+        <v>62.088056212368</v>
       </c>
       <c r="S14">
-        <v>0.0724842361048282</v>
+        <v>0.02135839333055121</v>
       </c>
       <c r="T14">
-        <v>0.07248423610482821</v>
+        <v>0.02135839333055121</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H15">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I15">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J15">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.295537</v>
       </c>
       <c r="O15">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P15">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q15">
-        <v>0.7744488885253333</v>
+        <v>0.2754501566586666</v>
       </c>
       <c r="R15">
-        <v>6.970039996728</v>
+        <v>2.479051409928</v>
       </c>
       <c r="S15">
-        <v>0.002287633671945911</v>
+        <v>0.0008527977574107459</v>
       </c>
       <c r="T15">
-        <v>0.002287633671945911</v>
+        <v>0.0008527977574107461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H16">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I16">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J16">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N16">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O16">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P16">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q16">
-        <v>9.632044952972445</v>
+        <v>2.836974489991111</v>
       </c>
       <c r="R16">
-        <v>86.68840457675201</v>
+        <v>25.53277040992</v>
       </c>
       <c r="S16">
-        <v>0.02845196202175923</v>
+        <v>0.008783314964289355</v>
       </c>
       <c r="T16">
-        <v>0.02845196202175924</v>
+        <v>0.008783314964289357</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H17">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I17">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J17">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N17">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O17">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P17">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q17">
-        <v>0.6428227013822223</v>
+        <v>0.06623620535199999</v>
       </c>
       <c r="R17">
-        <v>5.785404312440001</v>
+        <v>0.596125848168</v>
       </c>
       <c r="S17">
-        <v>0.001898824930297643</v>
+        <v>0.0002050682710396128</v>
       </c>
       <c r="T17">
-        <v>0.001898824930297643</v>
+        <v>0.0002050682710396127</v>
       </c>
     </row>
   </sheetData>
